--- a/medicine/Enfance/La_Maison_des_Maternelles/La_Maison_des_Maternelles.xlsx
+++ b/medicine/Enfance/La_Maison_des_Maternelles/La_Maison_des_Maternelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Maison des Maternelles, anciennement intitulée Les Maternelles jusqu'en 2016, est une émission de télévision française, diffusée quotidiennement sur La Cinquième puis France 5, de 2001 à 2020. Du 7 septembre 2020 à juin 2021, l'émission est diffusée sur France 4 puis sur France 2 en direct à partir du 6 septembre 2021.
@@ -512,9 +524,11 @@
           <t>Concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce magazine matinal à destination des parents est créé en septembre 2001 lors de la refonte complète de la grille de La Cinquième et de l'apparition de nombreux magazines. Il reprend le thème d'un magazine de reportages de la chaîne, Fête des bébés (1995-2001)[2] .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce magazine matinal à destination des parents est créé en septembre 2001 lors de la refonte complète de la grille de La Cinquième et de l'apparition de nombreux magazines. Il reprend le thème d'un magazine de reportages de la chaîne, Fête des bébés (1995-2001) .
 L'émission propose des conseils et des partages d'expérience aux parents dans l'éducation de leurs enfants, ainsi que parfois sur la vie de couple.
 </t>
         </is>
@@ -544,21 +558,93 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Maternelles sont présentées par Maïtena Biraben de 2001 à 2004[3] puis par Karine Le Marchand jusqu'en 2009[4].
-Entre 2001 et mai 2016, la présentatrice des Maternelles a été accompagnée d'une éditorialiste, puis coanimatrice, en la personne de Nathalie Le Breton[5].
-En septembre 2009, quand Karine Le Marchand rejoint M6, Élizabeth Tchoungui reprend la présentation du magazine[6], suivi par Daphné Bürki en 2011 et 2012[7]. 
-Julia Vignali, ancienne miss météo sur Canal+ reprend la présentation de l'émission, à partir de septembre 2012[8] avant d'être reprise par Sidonie Bonnec[9] de septembre 2015 à mai 2016.
-En avril 2016, France Télévisions annonce mettre fin à sa collaboration avec le producteur historique de l'émission Neria du groupe Newen à la suite du rachat de celui-ci par TF1[10]. Cette fin de la collaboration sera vécue par certains membres de l'équipe comme un "remerciement" un peu sec[11]. La dernière de cette émission évoquera cette incompréhension et cette douleur par ces mots de Nathalie Lebreton : "C'est une émission un peu spéciale, sur le baby-blues, qui est un peu l'état d'esprit qui nous étreint ce matin"[12].  
-En septembre 2016, l'émission, renommée La Maison des Maternelles, est de retour, produite par 2P2L[13]. Présentée par Agathe Lecaron, elle est désormais en direct[14] et se recentre sur la grossesse et les jeunes enfants.
-En septembre 2020, l'émission est déplacée sur France 4 et obtient une déclinaison nommée La Maison des Parents[15].
-En septembre 2021, l'émission change de chaîne pour être diffusée sur France 2 après Télématin. Elle se divise en deux parties, une première diffusée sur France 2 qui traite des sujets familiaux, de l'enfance et de l'éducation et une deuxième partie interactive diffusée sur France.tv[16].
-Chroniqueurs actuels
-Marie Perarnau (depuis 2016)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Maternelles sont présentées par Maïtena Biraben de 2001 à 2004 puis par Karine Le Marchand jusqu'en 2009.
+Entre 2001 et mai 2016, la présentatrice des Maternelles a été accompagnée d'une éditorialiste, puis coanimatrice, en la personne de Nathalie Le Breton.
+En septembre 2009, quand Karine Le Marchand rejoint M6, Élizabeth Tchoungui reprend la présentation du magazine, suivi par Daphné Bürki en 2011 et 2012. 
+Julia Vignali, ancienne miss météo sur Canal+ reprend la présentation de l'émission, à partir de septembre 2012 avant d'être reprise par Sidonie Bonnec de septembre 2015 à mai 2016.
+En avril 2016, France Télévisions annonce mettre fin à sa collaboration avec le producteur historique de l'émission Neria du groupe Newen à la suite du rachat de celui-ci par TF1. Cette fin de la collaboration sera vécue par certains membres de l'équipe comme un "remerciement" un peu sec. La dernière de cette émission évoquera cette incompréhension et cette douleur par ces mots de Nathalie Lebreton : "C'est une émission un peu spéciale, sur le baby-blues, qui est un peu l'état d'esprit qui nous étreint ce matin".  
+En septembre 2016, l'émission, renommée La Maison des Maternelles, est de retour, produite par 2P2L. Présentée par Agathe Lecaron, elle est désormais en direct et se recentre sur la grossesse et les jeunes enfants.
+En septembre 2020, l'émission est déplacée sur France 4 et obtient une déclinaison nommée La Maison des Parents.
+En septembre 2021, l'émission change de chaîne pour être diffusée sur France 2 après Télématin. Elle se divise en deux parties, une première diffusée sur France 2 qui traite des sujets familiaux, de l'enfance et de l'éducation et une deuxième partie interactive diffusée sur France.tv.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chroniqueurs actuels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marie Perarnau (depuis 2016)
 Yasmine Oughlis (depuis 2020)
-Karim Ngosso (depuis 2016)
-Anciens chroniqueurs (liste non exhaustive)
+Karim Ngosso (depuis 2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anciens chroniqueurs (liste non exhaustive)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Florence Arnold Richez (2001-2002)
 Renaud Baronian (2005-2009)
 Vincent Bekaert (2013-2016)
@@ -569,7 +655,7 @@
 Arnauld Champremier-Trigano (2009-2010)
 Elise Chassaing (2015-2016)
 Thomas Chauvigneau (2009-2013)
-Nadia Daam (2010-2012)[17]
+Nadia Daam (2010-2012)
 Valérie Darmon (2001-2003)
 Patricia Delahaie (2002-2007)
 Xavier de Moulins (2001-2002)
@@ -602,87 +688,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>La_Maison_des_Maternelles</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Déclinaisons</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En prime-time
-À l'occasion de la fête des mères, une soirée spéciale de l'émission est diffusée en prime-time sur France 5  le 29 mai 2005[18].
-On n'est pas que des parents
-À la suite des Maternelles, une nouvelle émission consacrée à la vie des parents est diffusée de 2006 à 2009 sur France 5[19].
-Cette déclinaison sera reprise sous le nom La maison des Parents durant la saison 2020-2021 sur France 4[20].
-Suite parentale
-Durant la saison 2018-2019, une nouvelle émission consacrée aux problématiques des enfants est diffusée sur France 4 en première partie de soirée[21].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>La_Maison_des_Maternelles</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Audiences</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sur France 5
-En 2003, le programme réalisait jusqu'à 15,2% d'audience[22]
-En 2007, l'émission réalisait une moyenne d'environ 226 000 téléspectateurs[23]. Avec un record à 14,6% de part d'audience, l'émission réalise son meilleur score en mai 2007[24]. Ce jour-là, le programme était la deuxième chaine la plus regardée.
-Durant la saison 2009-2010, l'émission enregistre une importante chute d'audience avec une moyenne de 4% d'audience (7% d'audience en moyenne pendant la saison 2008-2009)[25].
-La présence de personnalités populaires comme Anne Décis de Plus belle la vie permet à l'émission de reprendre des couleurs en affichant une part d'audience de 7,8% en novembre 2010[26].
-Durant la saison 2011-2012, l'émission réunit environ 217 000 téléspectateurs[27] et signe un record de 8,1% d'audience en décembre 2011[28].
-Au cours de la saison 2012-2013, l'émission réunit environ 5,4% du public. La saison suivante est plus faste, réalisant 7,9% du public en octobre 2013[29]
-En 2015-2016, l'émission réunit 200 000 téléspectateurs en moyenne[30] et réalisait entre 2 et 4% d'audience[31].
-Durant la saison 2017-2018, l'émission réunit environ 4,4% du public[32].
-Sur France 4
-L'émission bascule sur France 4 pour la saison 2020-2021 et les audiences sont plus confidentielles : 45 000 téléspectateurs en moyenne soit 1,1% du public[33].
-Sur France 2
-Le programme est diffusé sur France 2 à partir de la saison 2021-2022 et réalise un succès d'audimat : jusqu'à 551 000 et 15,8% du public en décembre 2021[34]
-En septembre 2022, l'émission réunit 400 000 téléspectateurs pour 15,3% d'audience[35].
-L'émission rassemble 420 000 téléspectateurs, soit 16,3% d'audience en septembre 2023[36].</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -704,16 +709,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Les Maternelles : un média global</t>
+          <t>Déclinaisons</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Outre l'émission diffusée sur France 2, le programme développe des contenus complémentaires sur d'autres supports[37] :
-une émission additionnelle intitulée La maison des Maternelles : à votre service est diffusée en direct sur france.tv, puis sur France 2 juste après l'émission quotidienne (depuis 2021)[38] ;
-un podcast intitulé Le Podcast des Maternelles présenté par Benjamin Muller[39] ;
-une plateforme internet dédiée à l'émission et aux problématiques des parents[40].
-un magazine papier féminin dédié à la parentalité (depuis 2022)[41]</t>
+          <t>En prime-time</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'occasion de la fête des mères, une soirée spéciale de l'émission est diffusée en prime-time sur France 5  le 29 mai 2005.
+</t>
         </is>
       </c>
     </row>
@@ -738,12 +746,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Versions internationales</t>
+          <t>Déclinaisons</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le format de l'émission Les Maternelles a été adapté à partir du 21 mai 2005 au Liban et de décembre 2016 en Algérie sous le nom عائلتي (‘Ā’ilatī?, signifiant : Ma famille) sur les chaînes Future TV et Echourouk TV respectivement[42]. Au Liban le magazine est présenté par Sybele Samhoun Tabbara et diffusé chaque soir[43] ; et il est enfin présenté par Nassima Ghaouli Belouz  est diffusé chaque jour à 17 h (AST) puis rediffusé le lendemain à 11 h (AST).
+          <t>On n'est pas que des parents</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite des Maternelles, une nouvelle émission consacrée à la vie des parents est diffusée de 2006 à 2009 sur France 5.
+Cette déclinaison sera reprise sous le nom La maison des Parents durant la saison 2020-2021 sur France 4.
 </t>
         </is>
       </c>
@@ -769,10 +784,235 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Déclinaisons</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Suite parentale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la saison 2018-2019, une nouvelle émission consacrée aux problématiques des enfants est diffusée sur France 4 en première partie de soirée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sur France 5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En 2003, le programme réalisait jusqu'à 15,2% d'audience
+En 2007, l'émission réalisait une moyenne d'environ 226 000 téléspectateurs. Avec un record à 14,6% de part d'audience, l'émission réalise son meilleur score en mai 2007. Ce jour-là, le programme était la deuxième chaine la plus regardée.
+Durant la saison 2009-2010, l'émission enregistre une importante chute d'audience avec une moyenne de 4% d'audience (7% d'audience en moyenne pendant la saison 2008-2009).
+La présence de personnalités populaires comme Anne Décis de Plus belle la vie permet à l'émission de reprendre des couleurs en affichant une part d'audience de 7,8% en novembre 2010.
+Durant la saison 2011-2012, l'émission réunit environ 217 000 téléspectateurs et signe un record de 8,1% d'audience en décembre 2011.
+Au cours de la saison 2012-2013, l'émission réunit environ 5,4% du public. La saison suivante est plus faste, réalisant 7,9% du public en octobre 2013
+En 2015-2016, l'émission réunit 200 000 téléspectateurs en moyenne et réalisait entre 2 et 4% d'audience.
+Durant la saison 2017-2018, l'émission réunit environ 4,4% du public.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sur France 4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L'émission bascule sur France 4 pour la saison 2020-2021 et les audiences sont plus confidentielles : 45 000 téléspectateurs en moyenne soit 1,1% du public.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Audiences</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sur France 2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le programme est diffusé sur France 2 à partir de la saison 2021-2022 et réalise un succès d'audimat : jusqu'à 551 000 et 15,8% du public en décembre 2021
+En septembre 2022, l'émission réunit 400 000 téléspectateurs pour 15,3% d'audience.
+L'émission rassemble 420 000 téléspectateurs, soit 16,3% d'audience en septembre 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les Maternelles : un média global</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Outre l'émission diffusée sur France 2, le programme développe des contenus complémentaires sur d'autres supports :
+une émission additionnelle intitulée La maison des Maternelles : à votre service est diffusée en direct sur france.tv, puis sur France 2 juste après l'émission quotidienne (depuis 2021) ;
+un podcast intitulé Le Podcast des Maternelles présenté par Benjamin Muller ;
+une plateforme internet dédiée à l'émission et aux problématiques des parents.
+un magazine papier féminin dédié à la parentalité (depuis 2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Versions internationales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le format de l'émission Les Maternelles a été adapté à partir du 21 mai 2005 au Liban et de décembre 2016 en Algérie sous le nom عائلتي (‘Ā’ilatī?, signifiant : Ma famille) sur les chaînes Future TV et Echourouk TV respectivement. Au Liban le magazine est présenté par Sybele Samhoun Tabbara et diffusé chaque soir ; et il est enfin présenté par Nassima Ghaouli Belouz  est diffusé chaque jour à 17 h (AST) puis rediffusé le lendemain à 11 h (AST).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Identité visuelle et audio</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">À noter que lors de la semaine du 13 au 17 mars 2006, l'émission, qui fête sa millième diffusion, arbore un logo de couleur orange avec la mention « Les 1000 Maternelles » et proposent 2 heures de programmation.
 			Logo de l'émission du 10 septembre 2001 à septembre 2010.
@@ -784,31 +1024,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>La_Maison_des_Maternelles</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>2003 : 7 d'or de la meilleure émission éducative
 2003 : prix de la Fondation pour l'enfance
@@ -816,31 +1058,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>La_Maison_des_Maternelles</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Maison_des_Maternelles</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Produits dérivés</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Série de DVD (guides, conseils), aux éditions MK2.
 Gamme de jeux et jouets d'éveil, Abysse Corp.
